--- a/file/第5组+高校科研管理系统-周报-20200418.xlsx
+++ b/file/第5组+高校科研管理系统-周报-20200418.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8E60A6-2C74-4127-9EE5-C50CC6868B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635BA5BB-6B89-4F55-B42F-4E543B1210D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="填写说明" sheetId="5" r:id="rId1"/>
@@ -305,18 +305,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设计登录注册，实现登录注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实现三种不同权限的用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对登录的用户进行权限识别，返回不同的页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对登录的用户进行权限识别，根据不同的权限返回不同的页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,47 +381,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘海锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>李昊源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue+springboot工程文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前里程碑/计划完成时间（yyyymmdd）： 前端页面的实现 /20200418</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>填报时间(yyyymmdd):20200418</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200428</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按计划完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200413</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>韩勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李昊源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vue+springboot工程文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前里程碑/计划完成时间（yyyymmdd）： 前端页面的实现 /20200418</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>填报时间(yyyymmdd):20200418</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200428</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按计划完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200413</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩勇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -443,6 +427,22 @@
   <si>
     <t>下个里程碑：后端写出相应接口，实现前端页面返回数据库数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘海锋，韩勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩勇，刘海锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计登录注册，实现登录注册，对密码实现加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对登录的用户进行权限识别，返回不同的页面以及安全控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1511,6 +1511,45 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1540,45 +1579,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1961,7 +1961,7 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.88671875" style="76"/>
     <col min="2" max="2" width="126.77734375" style="76" customWidth="1"/>
@@ -1970,7 +1970,7 @@
     <col min="7" max="16384" width="10.88671875" style="76"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="75" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="75" customFormat="1" ht="12">
       <c r="B2" s="73" t="s">
         <v>13</v>
       </c>
@@ -1981,7 +1981,7 @@
       <c r="G2" s="74"/>
       <c r="H2" s="74"/>
     </row>
-    <row r="3" spans="1:8" s="75" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="75" customFormat="1" ht="12">
       <c r="A3" s="83"/>
       <c r="B3" s="91" t="s">
         <v>47</v>
@@ -1993,7 +1993,7 @@
       <c r="G3" s="84"/>
       <c r="H3" s="85"/>
     </row>
-    <row r="4" spans="1:8" s="75" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="75" customFormat="1" ht="12">
       <c r="A4" s="83"/>
       <c r="B4" s="91" t="s">
         <v>40</v>
@@ -2005,7 +2005,7 @@
       <c r="G4" s="84"/>
       <c r="H4" s="85"/>
     </row>
-    <row r="5" spans="1:8" s="75" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="75" customFormat="1" ht="12">
       <c r="A5" s="83"/>
       <c r="B5" s="91" t="s">
         <v>48</v>
@@ -2017,7 +2017,7 @@
       <c r="G5" s="84"/>
       <c r="H5" s="85"/>
     </row>
-    <row r="6" spans="1:8" s="75" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="75" customFormat="1" ht="12">
       <c r="A6" s="83"/>
       <c r="B6" s="91" t="s">
         <v>37</v>
@@ -2029,7 +2029,7 @@
       <c r="G6" s="84"/>
       <c r="H6" s="85"/>
     </row>
-    <row r="7" spans="1:8" s="75" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="75" customFormat="1" ht="12">
       <c r="A7" s="83"/>
       <c r="B7" s="91" t="s">
         <v>38</v>
@@ -2041,7 +2041,7 @@
       <c r="G7" s="84"/>
       <c r="H7" s="85"/>
     </row>
-    <row r="8" spans="1:8" s="75" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="75" customFormat="1" ht="12">
       <c r="A8" s="83"/>
       <c r="B8" s="99" t="s">
         <v>39</v>
@@ -2053,7 +2053,7 @@
       <c r="G8" s="84"/>
       <c r="H8" s="85"/>
     </row>
-    <row r="9" spans="1:8" s="90" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="90" customFormat="1" ht="12">
       <c r="A9" s="89"/>
       <c r="B9" s="100" t="s">
         <v>46</v>
@@ -2065,7 +2065,7 @@
       <c r="G9" s="100"/>
       <c r="H9" s="100"/>
     </row>
-    <row r="10" spans="1:8" s="93" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="93" customFormat="1" ht="24.75" customHeight="1">
       <c r="A10" s="92"/>
       <c r="B10" s="99" t="s">
         <v>44</v>
@@ -2077,7 +2077,7 @@
       <c r="G10" s="99"/>
       <c r="H10" s="99"/>
     </row>
-    <row r="11" spans="1:8" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="95" customFormat="1" ht="12">
       <c r="A11" s="94"/>
       <c r="B11" s="94" t="s">
         <v>41</v>
@@ -2089,7 +2089,7 @@
       <c r="G11" s="94"/>
       <c r="H11" s="94"/>
     </row>
-    <row r="12" spans="1:8" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" s="95" customFormat="1" ht="12">
       <c r="A12" s="94"/>
       <c r="B12" s="94" t="s">
         <v>43</v>
@@ -2101,7 +2101,7 @@
       <c r="G12" s="94"/>
       <c r="H12" s="94"/>
     </row>
-    <row r="13" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="97" customFormat="1">
       <c r="A13" s="96"/>
       <c r="B13" s="94" t="s">
         <v>42</v>
@@ -2113,7 +2113,7 @@
       <c r="G13" s="96"/>
       <c r="H13" s="96"/>
     </row>
-    <row r="14" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="97" customFormat="1">
       <c r="A14" s="96"/>
       <c r="B14" s="94" t="s">
         <v>49</v>
@@ -2125,7 +2125,7 @@
       <c r="G14" s="96"/>
       <c r="H14" s="96"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="86"/>
@@ -2156,11 +2156,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.8"/>
   <cols>
     <col min="1" max="1" width="0.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -2174,66 +2174,66 @@
     <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="11.4" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" s="1" customFormat="1" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="107" t="s">
+    <row r="1" spans="2:9" ht="11.4" thickBot="1"/>
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="22.8" thickBot="1">
+      <c r="B2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109"/>
-    </row>
-    <row r="3" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="106" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="101" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102"/>
-    </row>
-    <row r="4" spans="2:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="110"/>
-    </row>
-    <row r="5" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="122"/>
+    </row>
+    <row r="3" spans="2:9" ht="12" customHeight="1">
+      <c r="B3" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="119"/>
+      <c r="G3" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115"/>
+    </row>
+    <row r="4" spans="2:9" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B4" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="117"/>
+      <c r="I4" s="123"/>
+    </row>
+    <row r="5" spans="2:9" ht="12">
       <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="40"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116" t="s">
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="116"/>
-      <c r="I5" s="117"/>
-    </row>
-    <row r="6" spans="2:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="106"/>
+      <c r="I5" s="107"/>
+    </row>
+    <row r="6" spans="2:9" ht="24.6" thickBot="1">
       <c r="B6" s="41" t="s">
         <v>4</v>
       </c>
@@ -2259,27 +2259,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="24" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="24">
       <c r="B7" s="23">
         <v>1</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H7" s="98" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I7" s="25"/>
     </row>
-    <row r="8" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="12">
       <c r="B8" s="5">
         <v>2</v>
       </c>
@@ -2291,7 +2291,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="12">
       <c r="B9" s="82">
         <v>3</v>
       </c>
@@ -2303,7 +2303,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" ht="12">
       <c r="B10" s="5">
         <v>4</v>
       </c>
@@ -2315,7 +2315,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" ht="12">
       <c r="B11" s="5">
         <v>5</v>
       </c>
@@ -2327,7 +2327,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" ht="12">
       <c r="B12" s="5">
         <v>6</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" ht="12">
       <c r="B13" s="5">
         <v>7</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" ht="12">
       <c r="B14" s="5">
         <v>8</v>
       </c>
@@ -2363,7 +2363,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" ht="12">
       <c r="B15" s="5">
         <v>9</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="2:9" ht="12.6" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" ht="12.6" thickBot="1">
       <c r="B16" s="19">
         <v>10</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="H16" s="20"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="2:9" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" s="3" customFormat="1" ht="12">
       <c r="B17" s="28" t="s">
         <v>45</v>
       </c>
@@ -2399,37 +2399,37 @@
       <c r="H17" s="29"/>
       <c r="I17" s="30"/>
     </row>
-    <row r="18" spans="2:9" s="3" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" s="3" customFormat="1" ht="12.6" thickBot="1">
       <c r="B18" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="C18" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="111" t="s">
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="113"/>
+      <c r="H18" s="103"/>
       <c r="I18" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:9" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="B19" s="26">
         <v>1</v>
       </c>
-      <c r="C19" s="121"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="123"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="113"/>
       <c r="G19" s="81"/>
       <c r="H19" s="80"/>
       <c r="I19" s="27"/>
     </row>
-    <row r="20" spans="2:9" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" s="4" customFormat="1" ht="12">
       <c r="B20" s="8">
         <v>2</v>
       </c>
@@ -2441,7 +2441,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="2:9" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" s="4" customFormat="1" ht="12">
       <c r="B21" s="8">
         <v>3</v>
       </c>
@@ -2453,7 +2453,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="2:9" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" s="4" customFormat="1" ht="12">
       <c r="B22" s="8">
         <v>4</v>
       </c>
@@ -2465,19 +2465,19 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="2:9" s="3" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" s="3" customFormat="1" ht="12.6" thickBot="1">
       <c r="B23" s="17">
         <v>5</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="115"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="105"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="2:9" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" s="13" customFormat="1" ht="12">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
@@ -2489,6 +2489,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G23:H23"/>
@@ -2496,12 +2502,6 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2522,7 +2522,7 @@
       <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="1.109375" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
@@ -2533,8 +2533,8 @@
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:8" ht="22.2">
       <c r="B2" s="124" t="s">
         <v>16</v>
       </c>
@@ -2545,7 +2545,7 @@
       <c r="G2" s="126"/>
       <c r="H2" s="127"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8">
       <c r="B3" s="133" t="s">
         <v>19</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1">
       <c r="B4" s="134"/>
       <c r="C4" s="140"/>
       <c r="D4" s="140"/>
@@ -2579,12 +2579,12 @@
       </c>
       <c r="H4" s="138"/>
     </row>
-    <row r="5" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="24">
       <c r="B5" s="130" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" s="77" t="s">
         <v>50</v>
@@ -2593,14 +2593,14 @@
         <v>50</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H5" s="38"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8">
       <c r="B6" s="131"/>
       <c r="C6" s="129"/>
       <c r="D6" s="77"/>
@@ -2609,7 +2609,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7" s="131"/>
       <c r="C7" s="129"/>
       <c r="D7" s="77"/>
@@ -2618,7 +2618,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="33"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8" s="131"/>
       <c r="C8" s="129"/>
       <c r="D8" s="77"/>
@@ -2627,7 +2627,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="33"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="B9" s="131"/>
       <c r="C9" s="129"/>
       <c r="D9" s="77"/>
@@ -2636,26 +2636,26 @@
       <c r="G9" s="6"/>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="24">
       <c r="B10" s="131"/>
       <c r="C10" s="129" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8">
       <c r="B11" s="131"/>
       <c r="C11" s="129"/>
       <c r="D11" s="77"/>
@@ -2664,7 +2664,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8">
       <c r="B12" s="131"/>
       <c r="C12" s="129"/>
       <c r="D12" s="35"/>
@@ -2673,22 +2673,22 @@
       <c r="G12" s="6"/>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="24">
       <c r="B13" s="131"/>
       <c r="C13" s="129" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8">
       <c r="B14" s="131"/>
       <c r="C14" s="129"/>
       <c r="D14" s="35"/>
@@ -2697,22 +2697,22 @@
       <c r="G14" s="6"/>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="2:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="48.6" thickBot="1">
       <c r="B15" s="132"/>
       <c r="C15" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" s="77"/>
       <c r="F15" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="34"/>
     </row>
-    <row r="18" spans="2:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" ht="15">
       <c r="B18" s="87"/>
       <c r="C18" s="88"/>
     </row>
@@ -2740,11 +2740,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="1.109375" style="45" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="45" customWidth="1"/>
@@ -2759,8 +2759,8 @@
     <col min="13" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="18" thickBot="1"/>
+    <row r="2" spans="2:13" ht="25.8">
       <c r="B2" s="141" t="s">
         <v>54</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="L2" s="142"/>
       <c r="M2" s="143"/>
     </row>
-    <row r="3" spans="2:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="66" customHeight="1">
       <c r="B3" s="144" t="s">
         <v>52</v>
       </c>
@@ -2792,7 +2792,7 @@
       <c r="L3" s="145"/>
       <c r="M3" s="146"/>
     </row>
-    <row r="4" spans="2:13" s="52" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" s="52" customFormat="1" ht="46.8">
       <c r="B4" s="48" t="s">
         <v>25</v>
       </c>
@@ -2830,12 +2830,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:13" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" s="52" customFormat="1" ht="30">
       <c r="B5" s="53">
         <v>0</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" s="55">
         <v>20200330</v>
@@ -2844,7 +2844,7 @@
         <v>20200405</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" s="54" t="s">
         <v>58</v>
@@ -2852,7 +2852,7 @@
       <c r="H5" s="50"/>
       <c r="I5" s="50"/>
       <c r="J5" s="57" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K5" s="62" t="s">
         <v>57</v>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="M5" s="58"/>
     </row>
-    <row r="6" spans="2:13" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" s="59" customFormat="1" ht="30">
       <c r="B6" s="53">
         <v>1</v>
       </c>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="M6" s="58"/>
     </row>
-    <row r="7" spans="2:13" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" s="59" customFormat="1" ht="30">
       <c r="B7" s="53">
         <v>2</v>
       </c>
@@ -2916,17 +2916,17 @@
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
       <c r="J7" s="57" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K7" s="62" t="s">
         <v>57</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M7" s="58"/>
     </row>
-    <row r="8" spans="2:13" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" s="59" customFormat="1" ht="45">
       <c r="B8" s="53">
         <v>3</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>20200421</v>
       </c>
       <c r="E8" s="55">
-        <v>20200428</v>
+        <v>20200502</v>
       </c>
       <c r="F8" s="61" t="s">
         <v>62</v>
@@ -2948,7 +2948,7 @@
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
       <c r="J8" s="57" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="K8" s="62" t="s">
         <v>57</v>
@@ -2956,7 +2956,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="58"/>
     </row>
-    <row r="9" spans="2:13" s="59" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" s="59" customFormat="1" ht="39.6">
       <c r="B9" s="53">
         <v>4</v>
       </c>
@@ -2964,10 +2964,10 @@
         <v>63</v>
       </c>
       <c r="D9" s="55">
-        <v>20200429</v>
+        <v>20200503</v>
       </c>
       <c r="E9" s="55">
-        <v>20200430</v>
+        <v>20200505</v>
       </c>
       <c r="F9" s="61" t="s">
         <v>64</v>
@@ -2978,7 +2978,7 @@
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
       <c r="J9" s="57" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="K9" s="62" t="s">
         <v>57</v>
@@ -2986,21 +2986,21 @@
       <c r="L9" s="63"/>
       <c r="M9" s="58"/>
     </row>
-    <row r="10" spans="2:13" s="59" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" s="59" customFormat="1" ht="39.6">
       <c r="B10" s="53">
         <v>5</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="D10" s="55">
-        <v>20200501</v>
+        <v>20200421</v>
       </c>
       <c r="E10" s="55">
         <v>20200505</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>58</v>
@@ -3008,7 +3008,7 @@
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="J10" s="57" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K10" s="62" t="s">
         <v>57</v>
@@ -3016,21 +3016,21 @@
       <c r="L10" s="63"/>
       <c r="M10" s="58"/>
     </row>
-    <row r="11" spans="2:13" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" s="59" customFormat="1" ht="45">
       <c r="B11" s="53">
         <v>6</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="D11" s="55">
         <v>20200506</v>
       </c>
       <c r="E11" s="55">
-        <v>20200513</v>
+        <v>20200510</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>58</v>
@@ -3038,7 +3038,7 @@
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
       <c r="J11" s="57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K11" s="62" t="s">
         <v>57</v>
@@ -3046,21 +3046,21 @@
       <c r="L11" s="63"/>
       <c r="M11" s="58"/>
     </row>
-    <row r="12" spans="2:13" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" s="59" customFormat="1" ht="30">
       <c r="B12" s="53">
         <v>7</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="55">
-        <v>20200514</v>
+        <v>20200511</v>
       </c>
       <c r="E12" s="55">
-        <v>20200520</v>
+        <v>20200515</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>58</v>
@@ -3068,7 +3068,7 @@
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="57" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K12" s="62" t="s">
         <v>57</v>
@@ -3076,7 +3076,7 @@
       <c r="L12" s="63"/>
       <c r="M12" s="58"/>
     </row>
-    <row r="13" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B13" s="53"/>
       <c r="C13" s="60"/>
       <c r="D13" s="55"/>
@@ -3090,7 +3090,7 @@
       <c r="L13" s="63"/>
       <c r="M13" s="58"/>
     </row>
-    <row r="14" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B14" s="53"/>
       <c r="C14" s="60"/>
       <c r="D14" s="55"/>
@@ -3104,7 +3104,7 @@
       <c r="L14" s="63"/>
       <c r="M14" s="58"/>
     </row>
-    <row r="15" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B15" s="53"/>
       <c r="C15" s="60"/>
       <c r="D15" s="55"/>
@@ -3118,7 +3118,7 @@
       <c r="L15" s="63"/>
       <c r="M15" s="58"/>
     </row>
-    <row r="16" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B16" s="53"/>
       <c r="C16" s="60"/>
       <c r="D16" s="55"/>
@@ -3132,7 +3132,7 @@
       <c r="L16" s="63"/>
       <c r="M16" s="58"/>
     </row>
-    <row r="17" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B17" s="53"/>
       <c r="C17" s="60"/>
       <c r="D17" s="55"/>
@@ -3146,7 +3146,7 @@
       <c r="L17" s="63"/>
       <c r="M17" s="58"/>
     </row>
-    <row r="18" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B18" s="53"/>
       <c r="C18" s="60"/>
       <c r="D18" s="55"/>
@@ -3160,7 +3160,7 @@
       <c r="L18" s="63"/>
       <c r="M18" s="58"/>
     </row>
-    <row r="19" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B19" s="53"/>
       <c r="C19" s="60"/>
       <c r="D19" s="55"/>
@@ -3174,7 +3174,7 @@
       <c r="L19" s="63"/>
       <c r="M19" s="58"/>
     </row>
-    <row r="20" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B20" s="53"/>
       <c r="C20" s="60"/>
       <c r="D20" s="55"/>
@@ -3188,7 +3188,7 @@
       <c r="L20" s="63"/>
       <c r="M20" s="58"/>
     </row>
-    <row r="21" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B21" s="53"/>
       <c r="C21" s="60"/>
       <c r="D21" s="55"/>
@@ -3202,7 +3202,7 @@
       <c r="L21" s="63"/>
       <c r="M21" s="58"/>
     </row>
-    <row r="22" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B22" s="53"/>
       <c r="C22" s="60"/>
       <c r="D22" s="55"/>
@@ -3216,7 +3216,7 @@
       <c r="L22" s="63"/>
       <c r="M22" s="58"/>
     </row>
-    <row r="23" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B23" s="53"/>
       <c r="C23" s="60"/>
       <c r="D23" s="55"/>
@@ -3230,7 +3230,7 @@
       <c r="L23" s="63"/>
       <c r="M23" s="58"/>
     </row>
-    <row r="24" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B24" s="53"/>
       <c r="C24" s="60"/>
       <c r="D24" s="55"/>
@@ -3244,7 +3244,7 @@
       <c r="L24" s="63"/>
       <c r="M24" s="58"/>
     </row>
-    <row r="25" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B25" s="53"/>
       <c r="C25" s="60"/>
       <c r="D25" s="55"/>
@@ -3258,7 +3258,7 @@
       <c r="L25" s="63"/>
       <c r="M25" s="58"/>
     </row>
-    <row r="26" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B26" s="53"/>
       <c r="C26" s="60"/>
       <c r="D26" s="55"/>
@@ -3272,7 +3272,7 @@
       <c r="L26" s="63"/>
       <c r="M26" s="58"/>
     </row>
-    <row r="27" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B27" s="53"/>
       <c r="C27" s="60"/>
       <c r="D27" s="55"/>
@@ -3286,7 +3286,7 @@
       <c r="L27" s="63"/>
       <c r="M27" s="58"/>
     </row>
-    <row r="28" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B28" s="53"/>
       <c r="C28" s="60"/>
       <c r="D28" s="55"/>
@@ -3300,7 +3300,7 @@
       <c r="L28" s="79"/>
       <c r="M28" s="58"/>
     </row>
-    <row r="29" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B29" s="53"/>
       <c r="C29" s="60"/>
       <c r="D29" s="55"/>
@@ -3314,7 +3314,7 @@
       <c r="L29" s="63"/>
       <c r="M29" s="58"/>
     </row>
-    <row r="30" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B30" s="53"/>
       <c r="C30" s="60"/>
       <c r="D30" s="55"/>
@@ -3328,7 +3328,7 @@
       <c r="L30" s="63"/>
       <c r="M30" s="58"/>
     </row>
-    <row r="31" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B31" s="53"/>
       <c r="C31" s="60"/>
       <c r="D31" s="55"/>
@@ -3342,7 +3342,7 @@
       <c r="L31" s="63"/>
       <c r="M31" s="58"/>
     </row>
-    <row r="32" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B32" s="53"/>
       <c r="C32" s="60"/>
       <c r="D32" s="55"/>
@@ -3356,7 +3356,7 @@
       <c r="L32" s="63"/>
       <c r="M32" s="58"/>
     </row>
-    <row r="33" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B33" s="53"/>
       <c r="C33" s="60"/>
       <c r="D33" s="55"/>
@@ -3370,7 +3370,7 @@
       <c r="L33" s="63"/>
       <c r="M33" s="58"/>
     </row>
-    <row r="34" spans="2:13" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" s="59" customFormat="1" ht="15">
       <c r="B34" s="53"/>
       <c r="C34" s="60"/>
       <c r="D34" s="55"/>
@@ -3384,7 +3384,7 @@
       <c r="L34" s="63"/>
       <c r="M34" s="58"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13">
       <c r="B35" s="53"/>
       <c r="C35" s="60"/>
       <c r="D35" s="64"/>
@@ -3398,7 +3398,7 @@
       <c r="L35" s="64"/>
       <c r="M35" s="66"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13">
       <c r="B36" s="53"/>
       <c r="C36" s="60"/>
       <c r="D36" s="67"/>
@@ -3412,7 +3412,7 @@
       <c r="L36" s="64"/>
       <c r="M36" s="66"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13">
       <c r="B37" s="53"/>
       <c r="C37" s="60"/>
       <c r="D37" s="67"/>
@@ -3426,7 +3426,7 @@
       <c r="L37" s="64"/>
       <c r="M37" s="66"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13">
       <c r="B38" s="53"/>
       <c r="C38" s="60"/>
       <c r="D38" s="67"/>
@@ -3440,7 +3440,7 @@
       <c r="L38" s="64"/>
       <c r="M38" s="66"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13">
       <c r="B39" s="53"/>
       <c r="C39" s="60"/>
       <c r="D39" s="67"/>
@@ -3454,7 +3454,7 @@
       <c r="L39" s="64"/>
       <c r="M39" s="66"/>
     </row>
-    <row r="40" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" ht="18" thickBot="1">
       <c r="B40" s="53"/>
       <c r="C40" s="68"/>
       <c r="D40" s="69"/>
